--- a/Tables_Figures/output/table07_CAT_example_stimulus.xlsx
+++ b/Tables_Figures/output/table07_CAT_example_stimulus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Relationship</t>
   </si>
@@ -21,12 +21,6 @@
   </si>
   <si>
     <t>Plural</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Related</t>
@@ -96,14 +90,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -117,9 +110,6 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -131,9 +121,6 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
